--- a/testing_results/inference_time_tai20x15.xlsx
+++ b/testing_results/inference_time_tai20x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.598998427391052</v>
+        <v>3.99983594417572</v>
       </c>
       <c r="B2" t="n">
-        <v>3.559962677955627</v>
+        <v>3.748307251930237</v>
       </c>
       <c r="C2" t="n">
-        <v>3.591789937019348</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.597240567207336</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.569548797607422</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.571696710586548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.622669792175293</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.554272389411926</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.585246634483338</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.541435647010803</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.625473880767822</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.556615853309631</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.496438241004944</v>
-      </c>
-      <c r="N2" t="n">
-        <v>56.95149292945862</v>
+        <v>60.74278540611267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.22430191040039</v>
+        <v>7.869103574752808</v>
       </c>
       <c r="B3" t="n">
-        <v>7.112711238861084</v>
+        <v>7.549613022804261</v>
       </c>
       <c r="C3" t="n">
-        <v>7.184761548042298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.181802010536193</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.139290046691895</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.132302618026733</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.1871666431427</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.115117168426513</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.154486179351807</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.06269862651825</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.214601540565491</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.111857962608338</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.070887923240662</v>
-      </c>
-      <c r="N3" t="n">
-        <v>108.1727962255478</v>
+        <v>116.7620567560196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.52994904518127</v>
+        <v>15.86762464046478</v>
       </c>
       <c r="B4" t="n">
-        <v>14.21942830085754</v>
+        <v>15.62220225334167</v>
       </c>
       <c r="C4" t="n">
-        <v>14.36576781272888</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.36964101791382</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.2423552274704</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14.35001146793365</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14.35719695091248</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.32228920459747</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.38978703022003</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.08266389369965</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.4203861951828</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14.23727376461029</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14.2000776052475</v>
-      </c>
-      <c r="N4" t="n">
-        <v>220.9948732376099</v>
+        <v>235.6439660787582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39.43704953193664</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38.57814857959747</v>
+      </c>
+      <c r="C5" t="n">
+        <v>574.8569084167481</v>
       </c>
     </row>
   </sheetData>
